--- a/excels/EJEMPLO TABLA(1).xlsx
+++ b/excels/EJEMPLO TABLA(1).xlsx
@@ -424,7 +424,7 @@
         <v>oct</v>
       </c>
       <c r="H2" s="1" t="str">
-        <v>https://sis.redsys.es/sis/p2f?t=11FA873CAC0A2D5BE028A6DD33F6C577D78186DC</v>
+        <v>https://sis.redsys.es/sis/p2f?t=527F5FAB1050515B414B237E76D494664BF94AC5</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +444,7 @@
         <v>0.01</v>
       </c>
       <c r="H3" s="1" t="str">
-        <v>https://sis.redsys.es/sis/p2f?t=117A2CF08BAE91CB90967A68A0CC84B27F06D6B7</v>
+        <v>https://sis.redsys.es/sis/p2f?t=4DEAD2F58AD7A18BC87C5117EB2F9FA4E3016FAA</v>
       </c>
     </row>
     <row r="4">
